--- a/Astro Software.xlsx
+++ b/Astro Software.xlsx
@@ -5384,9 +5384,9 @@
   <dimension ref="A1:P344"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="7" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="7" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H83" activeCellId="0" sqref="H83"/>
+      <selection pane="bottomLeft" activeCell="I194" activeCellId="0" sqref="I194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="11.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9079,7 +9079,7 @@
       <c r="D195" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F195" s="7" t="s">
+      <c r="F195" s="9" t="s">
         <v>3</v>
       </c>
       <c r="J195" s="2" t="s">

--- a/Astro Software.xlsx
+++ b/Astro Software.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Software" sheetId="1" state="visible" r:id="rId3"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2803" uniqueCount="1473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2805" uniqueCount="1475">
   <si>
     <t xml:space="preserve">Astrodynamics Software </t>
   </si>
@@ -3730,46 +3730,52 @@
     <t xml:space="preserve">anglesdr</t>
   </si>
   <si>
-    <t xml:space="preserve">valladopy.astro.twobody.lambert.min_energy</t>
+    <t xml:space="preserve">valladopy.astro.iod.lambert.min_energy</t>
   </si>
   <si>
     <t xml:space="preserve">lambertmin</t>
   </si>
   <si>
-    <t xml:space="preserve">valladopy.astro.twobody.lambert.min_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valladopy.astro.twobody.lambert.seebatt</t>
+    <t xml:space="preserve">valladopy.astro.iod.lambert.min_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valladopy.astro.iod.lambert.tmax_rp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lamberttmaxrp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valladopy.astro.iod.lambert.seebatt</t>
   </si>
   <si>
     <t xml:space="preserve">seebatt</t>
   </si>
   <si>
-    <t xml:space="preserve">valladopy.astro.twobody.lambert.kbatt</t>
+    <t xml:space="preserve">valladopy.astro.iod.lambert.kbatt</t>
   </si>
   <si>
     <t xml:space="preserve">kbatt</t>
   </si>
   <si>
-    <t xml:space="preserve">valladopy.astro.twobody.lambert.hodograph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valladopy.astro.twobody.lambert.battin</t>
+    <t xml:space="preserve">valladopy.astro.iod.lambert.hodograph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valladopy.astro.iod.lambert.battin</t>
   </si>
   <si>
     <t xml:space="preserve">lambertb</t>
   </si>
   <si>
-    <t xml:space="preserve">valladopy.astro.twobody.lambert.get_tbiu</t>
+    <t xml:space="preserve">valladopy.astro.iod.lambert.get_tbiu</t>
   </si>
   <si>
     <t xml:space="preserve">lambgetbiu</t>
   </si>
   <si>
-    <t xml:space="preserve">valladopy.astro.twobody.lambert.universal_min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valladopy.astro.twobody.lambert.universal</t>
+    <t xml:space="preserve">valladopy.astro.iod.lambert.universal_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valladopy.astro.iod.lambert.universal</t>
   </si>
   <si>
     <t xml:space="preserve">lambertu</t>
@@ -4647,7 +4653,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="d\-mmm"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4783,6 +4789,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4924,7 +4936,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5113,6 +5125,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5125,7 +5141,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5383,7 +5399,7 @@
   </sheetPr>
   <dimension ref="A1:P344"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="7" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="I194" activeCellId="0" sqref="I194"/>
@@ -15881,10 +15897,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB1040"/>
+  <dimension ref="A1:AB1041"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E149" activeCellId="0" sqref="E149"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16143,10 +16159,10 @@
         <v>338</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="41"/>
       <c r="B21" s="41"/>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="47" t="s">
         <v>1173</v>
       </c>
       <c r="D21" s="44" t="s">
@@ -16170,17 +16186,17 @@
         <v>1177</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>344</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="41"/>
       <c r="B24" s="41"/>
       <c r="C24" s="43" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>1179</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16200,17 +16216,17 @@
         <v>1182</v>
       </c>
       <c r="D26" s="44" t="s">
-        <v>336</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="41"/>
       <c r="B27" s="41"/>
       <c r="C27" s="43" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="D27" s="44" t="s">
-        <v>1184</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16220,42 +16236,42 @@
         <v>1185</v>
       </c>
       <c r="D28" s="44" t="s">
-        <v>371</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="41"/>
       <c r="B29" s="41"/>
-      <c r="C29" s="45" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D29" s="46" t="s">
+      <c r="C29" s="43" t="s">
         <v>1187</v>
       </c>
-      <c r="E29" s="45"/>
+      <c r="D29" s="44" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="41"/>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="41"/>
+      <c r="C30" s="45" t="s">
         <v>1188</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="D30" s="46" t="s">
         <v>1189</v>
       </c>
-      <c r="D30" s="44" t="s">
-        <v>1190</v>
-      </c>
-      <c r="E30" s="43" t="s">
-        <v>1191</v>
-      </c>
+      <c r="E30" s="45"/>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
+      <c r="B31" s="41" t="s">
+        <v>1190</v>
+      </c>
       <c r="C31" s="43" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D31" s="44" t="s">
         <v>1192</v>
       </c>
-      <c r="D31" s="44" t="s">
+      <c r="E31" s="43" t="s">
         <v>1193</v>
       </c>
     </row>
@@ -16352,174 +16368,171 @@
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="41"/>
       <c r="B41" s="41"/>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="43" t="s">
         <v>1212</v>
       </c>
-      <c r="D41" s="46" t="s">
+      <c r="D41" s="44" t="s">
         <v>1213</v>
       </c>
-      <c r="E41" s="45"/>
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="41"/>
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="41"/>
+      <c r="C42" s="45" t="s">
         <v>1214</v>
       </c>
-      <c r="C42" s="43" t="s">
+      <c r="D42" s="46" t="s">
         <v>1215</v>
       </c>
-      <c r="D42" s="44" t="s">
-        <v>1007</v>
-      </c>
+      <c r="E42" s="45"/>
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="41"/>
-      <c r="B43" s="41"/>
+      <c r="B43" s="41" t="s">
+        <v>1216</v>
+      </c>
       <c r="C43" s="43" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="D43" s="44" t="s">
-        <v>415</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="41"/>
       <c r="B44" s="41"/>
-      <c r="C44" s="45" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D44" s="46" t="s">
+      <c r="C44" s="43" t="s">
         <v>1218</v>
       </c>
-      <c r="E44" s="45"/>
+      <c r="D44" s="44" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="41"/>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="41"/>
+      <c r="C45" s="45" t="s">
         <v>1219</v>
       </c>
-      <c r="C45" s="43" t="s">
+      <c r="D45" s="46" t="s">
         <v>1220</v>
       </c>
-      <c r="D45" s="44" t="s">
-        <v>545</v>
-      </c>
+      <c r="E45" s="45"/>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="41"/>
-      <c r="B46" s="41"/>
+      <c r="B46" s="41" t="s">
+        <v>1221</v>
+      </c>
       <c r="C46" s="43" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D46" s="46" t="s">
         <v>1222</v>
       </c>
-      <c r="E46" s="45"/>
+      <c r="D46" s="44" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="41"/>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="41"/>
+      <c r="C47" s="43" t="s">
         <v>1223</v>
       </c>
-      <c r="C47" s="47" t="s">
+      <c r="D47" s="46" t="s">
         <v>1224</v>
       </c>
-      <c r="D47" s="44" t="s">
-        <v>1225</v>
-      </c>
-      <c r="E47" s="43" t="s">
-        <v>1226</v>
-      </c>
+      <c r="E47" s="45"/>
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="41"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="43" t="s">
+      <c r="B48" s="41" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C48" s="48" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D48" s="44" t="s">
         <v>1227</v>
       </c>
-      <c r="D48" s="44" t="s">
+      <c r="E48" s="43" t="s">
         <v>1228</v>
-      </c>
-      <c r="E48" s="43" t="s">
-        <v>1229</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="41"/>
       <c r="B49" s="41"/>
-      <c r="C49" s="45" t="s">
+      <c r="C49" s="43" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D49" s="44" t="s">
         <v>1230</v>
       </c>
-      <c r="D49" s="46" t="s">
-        <v>391</v>
-      </c>
-      <c r="E49" s="45"/>
+      <c r="E49" s="43" t="s">
+        <v>1231</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="41"/>
-      <c r="B50" s="41" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C50" s="43" t="s">
+      <c r="B50" s="41"/>
+      <c r="C50" s="45" t="s">
         <v>1232</v>
       </c>
-      <c r="D50" s="44" t="s">
-        <v>476</v>
-      </c>
-      <c r="E50" s="43" t="s">
-        <v>1233</v>
-      </c>
+      <c r="D50" s="46" t="s">
+        <v>391</v>
+      </c>
+      <c r="E50" s="45"/>
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="41"/>
-      <c r="B51" s="41"/>
+      <c r="B51" s="41" t="s">
+        <v>1233</v>
+      </c>
       <c r="C51" s="43" t="s">
         <v>1234</v>
       </c>
       <c r="D51" s="44" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E51" s="43" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="41"/>
       <c r="B52" s="41"/>
       <c r="C52" s="43" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D52" s="44" t="s">
+        <v>474</v>
+      </c>
+      <c r="E52" s="43" t="s">
         <v>1235</v>
-      </c>
-      <c r="D52" s="44" t="s">
-        <v>470</v>
-      </c>
-      <c r="E52" s="43" t="s">
-        <v>1233</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="41"/>
       <c r="B53" s="41"/>
       <c r="C53" s="43" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="D53" s="44" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E53" s="43" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="41"/>
       <c r="B54" s="41"/>
       <c r="C54" s="43" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="D54" s="44" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="E54" s="43" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16529,144 +16542,144 @@
         <v>1239</v>
       </c>
       <c r="D55" s="44" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="E55" s="43" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="41"/>
       <c r="B56" s="41"/>
       <c r="C56" s="43" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D56" s="44" t="s">
+        <v>468</v>
+      </c>
+      <c r="E56" s="43" t="s">
         <v>1240</v>
-      </c>
-      <c r="D56" s="44" t="s">
-        <v>478</v>
-      </c>
-      <c r="E56" s="43" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="41"/>
       <c r="B57" s="41"/>
       <c r="C57" s="43" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="D57" s="44" t="s">
-        <v>1231</v>
+        <v>478</v>
       </c>
       <c r="E57" s="43" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="41"/>
       <c r="B58" s="41"/>
-      <c r="C58" s="45" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D58" s="46" t="s">
-        <v>482</v>
-      </c>
-      <c r="E58" s="45"/>
+      <c r="C58" s="43" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D58" s="44" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E58" s="43" t="s">
+        <v>1240</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="41"/>
-      <c r="B59" s="41" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C59" s="43" t="s">
+      <c r="B59" s="41"/>
+      <c r="C59" s="45" t="s">
         <v>1244</v>
       </c>
-      <c r="D59" s="44" t="s">
-        <v>458</v>
-      </c>
+      <c r="D59" s="46" t="s">
+        <v>482</v>
+      </c>
+      <c r="E59" s="45"/>
     </row>
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="41"/>
-      <c r="B60" s="41"/>
+      <c r="B60" s="41" t="s">
+        <v>1245</v>
+      </c>
       <c r="C60" s="43" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="D60" s="44" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="41"/>
       <c r="B61" s="41"/>
       <c r="C61" s="43" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="D61" s="44" t="s">
-        <v>232</v>
+        <v>459</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="41"/>
       <c r="B62" s="41"/>
       <c r="C62" s="43" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="D62" s="44" t="s">
-        <v>460</v>
+        <v>232</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="41"/>
       <c r="B63" s="41"/>
       <c r="C63" s="43" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D63" s="44" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="41"/>
       <c r="B64" s="41"/>
       <c r="C64" s="43" t="s">
-        <v>1249</v>
-      </c>
-      <c r="D64" s="48" t="s">
         <v>1250</v>
       </c>
-      <c r="E64" s="49" t="s">
-        <v>1251</v>
+      <c r="D64" s="44" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="41"/>
       <c r="B65" s="41"/>
       <c r="C65" s="43" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D65" s="49" t="s">
         <v>1252</v>
       </c>
-      <c r="D65" s="48"/>
-      <c r="E65" s="48"/>
+      <c r="E65" s="50" t="s">
+        <v>1253</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="41"/>
       <c r="B66" s="41"/>
       <c r="C66" s="43" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
+        <v>1254</v>
+      </c>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
     </row>
     <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="41"/>
       <c r="B67" s="41"/>
       <c r="C67" s="43" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D67" s="48" t="s">
         <v>1255</v>
       </c>
-      <c r="E67" s="49" t="s">
-        <v>1251</v>
-      </c>
+      <c r="D67" s="49"/>
+      <c r="E67" s="49"/>
     </row>
     <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="41"/>
@@ -16674,36 +16687,39 @@
       <c r="C68" s="43" t="s">
         <v>1256</v>
       </c>
-      <c r="D68" s="48"/>
-      <c r="E68" s="48"/>
+      <c r="D68" s="49" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E68" s="50" t="s">
+        <v>1253</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="41"/>
       <c r="B69" s="41"/>
       <c r="C69" s="43" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D69" s="48"/>
-      <c r="E69" s="48"/>
+        <v>1258</v>
+      </c>
+      <c r="D69" s="49"/>
+      <c r="E69" s="49"/>
     </row>
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="41"/>
       <c r="B70" s="41"/>
       <c r="C70" s="43" t="s">
-        <v>1258</v>
-      </c>
-      <c r="D70" s="48"/>
-      <c r="E70" s="48"/>
+        <v>1259</v>
+      </c>
+      <c r="D70" s="49"/>
+      <c r="E70" s="49"/>
     </row>
     <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="41"/>
       <c r="B71" s="41"/>
       <c r="C71" s="43" t="s">
-        <v>1259</v>
-      </c>
-      <c r="D71" s="44" t="s">
         <v>1260</v>
       </c>
+      <c r="D71" s="49"/>
+      <c r="E71" s="49"/>
     </row>
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="41"/>
@@ -16992,17 +17008,17 @@
         <v>1317</v>
       </c>
       <c r="D100" s="44" t="s">
-        <v>219</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="41"/>
       <c r="B101" s="41"/>
       <c r="C101" s="43" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D101" s="44" t="s">
-        <v>1319</v>
+        <v>219</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17022,67 +17038,67 @@
         <v>1322</v>
       </c>
       <c r="D103" s="44" t="s">
-        <v>233</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="41"/>
       <c r="B104" s="41"/>
       <c r="C104" s="43" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="D104" s="44" t="s">
-        <v>962</v>
+        <v>233</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="41"/>
       <c r="B105" s="41"/>
       <c r="C105" s="43" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="D105" s="44" t="s">
-        <v>227</v>
+        <v>962</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="41"/>
       <c r="B106" s="41"/>
       <c r="C106" s="43" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D106" s="44" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="41"/>
       <c r="B107" s="41"/>
       <c r="C107" s="43" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="D107" s="44" t="s">
-        <v>461</v>
+        <v>229</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="41"/>
       <c r="B108" s="41"/>
       <c r="C108" s="43" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="D108" s="44" t="s">
-        <v>961</v>
+        <v>461</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="41"/>
       <c r="B109" s="41"/>
       <c r="C109" s="43" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="D109" s="44" t="s">
-        <v>1329</v>
+        <v>961</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17092,120 +17108,119 @@
         <v>1330</v>
       </c>
       <c r="D110" s="44" t="s">
-        <v>223</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="41"/>
       <c r="B111" s="41"/>
       <c r="C111" s="43" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="D111" s="44" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="41"/>
       <c r="B112" s="41"/>
       <c r="C112" s="43" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="D112" s="44" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="41"/>
       <c r="B113" s="41"/>
       <c r="C113" s="43" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="D113" s="44" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="41"/>
       <c r="B114" s="41"/>
       <c r="C114" s="43" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="D114" s="44" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="41"/>
       <c r="B115" s="41"/>
       <c r="C115" s="43" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="D115" s="44" t="s">
-        <v>465</v>
-      </c>
-      <c r="E115" s="43" t="s">
-        <v>1336</v>
+        <v>239</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="41"/>
       <c r="B116" s="41"/>
-      <c r="C116" s="45" t="s">
+      <c r="C116" s="43" t="s">
         <v>1337</v>
       </c>
-      <c r="D116" s="46" t="s">
-        <v>464</v>
-      </c>
-      <c r="E116" s="45"/>
+      <c r="D116" s="44" t="s">
+        <v>465</v>
+      </c>
+      <c r="E116" s="43" t="s">
+        <v>1338</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="41"/>
-      <c r="B117" s="41" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C117" s="43" t="s">
+      <c r="B117" s="41"/>
+      <c r="C117" s="45" t="s">
         <v>1339</v>
       </c>
-      <c r="D117" s="44" t="s">
-        <v>1340</v>
-      </c>
-      <c r="E117" s="43" t="s">
-        <v>1341</v>
-      </c>
+      <c r="D117" s="46" t="s">
+        <v>464</v>
+      </c>
+      <c r="E117" s="45"/>
     </row>
     <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="41"/>
-      <c r="B118" s="41"/>
+      <c r="B118" s="41" t="s">
+        <v>1340</v>
+      </c>
       <c r="C118" s="43" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D118" s="44" t="s">
         <v>1342</v>
       </c>
-      <c r="D118" s="44" t="s">
+      <c r="E118" s="43" t="s">
         <v>1343</v>
-      </c>
-      <c r="E118" s="43" t="s">
-        <v>1344</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="41"/>
       <c r="B119" s="41"/>
       <c r="C119" s="43" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D119" s="44" t="s">
         <v>1345</v>
       </c>
-      <c r="D119" s="44" t="s">
-        <v>428</v>
-      </c>
-      <c r="E119" s="43"/>
+      <c r="E119" s="43" t="s">
+        <v>1346</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="41"/>
       <c r="B120" s="41"/>
       <c r="C120" s="43" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="D120" s="44" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E120" s="43"/>
     </row>
@@ -17213,10 +17228,10 @@
       <c r="A121" s="41"/>
       <c r="B121" s="41"/>
       <c r="C121" s="43" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="D121" s="44" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E121" s="43"/>
     </row>
@@ -17224,10 +17239,10 @@
       <c r="A122" s="41"/>
       <c r="B122" s="41"/>
       <c r="C122" s="43" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="D122" s="44" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E122" s="43"/>
     </row>
@@ -17235,10 +17250,10 @@
       <c r="A123" s="41"/>
       <c r="B123" s="41"/>
       <c r="C123" s="43" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="D123" s="44" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E123" s="43"/>
     </row>
@@ -17246,10 +17261,10 @@
       <c r="A124" s="41"/>
       <c r="B124" s="41"/>
       <c r="C124" s="43" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="D124" s="44" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E124" s="43"/>
     </row>
@@ -17257,10 +17272,10 @@
       <c r="A125" s="41"/>
       <c r="B125" s="41"/>
       <c r="C125" s="43" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="D125" s="44" t="s">
-        <v>1352</v>
+        <v>438</v>
       </c>
       <c r="E125" s="43"/>
     </row>
@@ -17282,7 +17297,7 @@
         <v>1355</v>
       </c>
       <c r="D127" s="44" t="s">
-        <v>420</v>
+        <v>1356</v>
       </c>
       <c r="E127" s="43"/>
     </row>
@@ -17290,10 +17305,10 @@
       <c r="A128" s="41"/>
       <c r="B128" s="41"/>
       <c r="C128" s="43" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="D128" s="44" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E128" s="43"/>
     </row>
@@ -17301,83 +17316,84 @@
       <c r="A129" s="41"/>
       <c r="B129" s="41"/>
       <c r="C129" s="43" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="D129" s="44" t="s">
-        <v>1358</v>
-      </c>
-      <c r="E129" s="43" t="s">
-        <v>1359</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="E129" s="43"/>
     </row>
     <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="41"/>
       <c r="B130" s="41"/>
       <c r="C130" s="43" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D130" s="44" t="s">
         <v>1360</v>
       </c>
-      <c r="D130" s="44" t="s">
-        <v>287</v>
+      <c r="E130" s="43" t="s">
+        <v>1361</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="41"/>
       <c r="B131" s="41"/>
       <c r="C131" s="43" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="D131" s="44" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="41"/>
       <c r="B132" s="41"/>
       <c r="C132" s="43" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="D132" s="44" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="41"/>
       <c r="B133" s="41"/>
       <c r="C133" s="43" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D133" s="44" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="41"/>
       <c r="B134" s="41"/>
       <c r="C134" s="43" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="D134" s="44" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="41"/>
       <c r="B135" s="41"/>
       <c r="C135" s="43" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="D135" s="44" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="41"/>
       <c r="B136" s="41"/>
       <c r="C136" s="43" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="D136" s="44" t="s">
-        <v>1367</v>
+        <v>277</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17389,38 +17405,38 @@
       <c r="D137" s="44" t="s">
         <v>1369</v>
       </c>
-      <c r="E137" s="43" t="s">
-        <v>1370</v>
-      </c>
     </row>
     <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="41"/>
       <c r="B138" s="41"/>
       <c r="C138" s="43" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D138" s="44" t="s">
         <v>1371</v>
       </c>
-      <c r="D138" s="44" t="s">
-        <v>283</v>
+      <c r="E138" s="43" t="s">
+        <v>1372</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="41"/>
       <c r="B139" s="41"/>
       <c r="C139" s="43" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="D139" s="44" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="41"/>
       <c r="B140" s="41"/>
       <c r="C140" s="43" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="D140" s="44" t="s">
-        <v>1374</v>
+        <v>281</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17472,17 +17488,17 @@
       <c r="D145" s="44" t="s">
         <v>1384</v>
       </c>
-      <c r="E145" s="50" t="s">
-        <v>1385</v>
-      </c>
     </row>
     <row r="146" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="41"/>
       <c r="B146" s="41"/>
       <c r="C146" s="43" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D146" s="44" t="s">
         <v>1386</v>
       </c>
-      <c r="D146" s="44" t="s">
+      <c r="E146" s="51" t="s">
         <v>1387</v>
       </c>
     </row>
@@ -17515,48 +17531,48 @@
       <c r="D149" s="44" t="s">
         <v>1393</v>
       </c>
-      <c r="E149" s="50" t="s">
-        <v>1394</v>
-      </c>
     </row>
     <row r="150" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="41"/>
       <c r="B150" s="41"/>
       <c r="C150" s="43" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D150" s="44" t="s">
         <v>1395</v>
       </c>
-      <c r="D150" s="44" t="s">
-        <v>305</v>
+      <c r="E150" s="51" t="s">
+        <v>1396</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="41"/>
       <c r="B151" s="41"/>
       <c r="C151" s="43" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="D151" s="44" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="41"/>
       <c r="B152" s="41"/>
       <c r="C152" s="43" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="D152" s="44" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="41"/>
       <c r="B153" s="41"/>
       <c r="C153" s="43" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="D153" s="44" t="s">
-        <v>1399</v>
+        <v>309</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17578,61 +17594,61 @@
       <c r="D155" s="44" t="s">
         <v>1403</v>
       </c>
-      <c r="E155" s="43" t="s">
-        <v>1404</v>
-      </c>
     </row>
     <row r="156" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="41"/>
       <c r="B156" s="41"/>
       <c r="C156" s="43" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D156" s="44" t="s">
         <v>1405</v>
       </c>
-      <c r="D156" s="44" t="s">
+      <c r="E156" s="43" t="s">
         <v>1406</v>
-      </c>
-      <c r="E156" s="43" t="s">
-        <v>1407</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="41"/>
       <c r="B157" s="41"/>
       <c r="C157" s="43" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D157" s="44" t="s">
         <v>1408</v>
       </c>
-      <c r="D157" s="44" t="s">
-        <v>985</v>
+      <c r="E157" s="43" t="s">
+        <v>1409</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="41"/>
       <c r="B158" s="41"/>
       <c r="C158" s="43" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="D158" s="44" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="41"/>
       <c r="B159" s="41"/>
       <c r="C159" s="43" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="D159" s="44" t="s">
-        <v>324</v>
+        <v>986</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="41"/>
       <c r="B160" s="41"/>
       <c r="C160" s="43" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="D160" s="44" t="s">
-        <v>1412</v>
+        <v>324</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17652,47 +17668,47 @@
         <v>1415</v>
       </c>
       <c r="D162" s="44" t="s">
-        <v>978</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="41"/>
       <c r="B163" s="41"/>
       <c r="C163" s="43" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="D163" s="44" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="41"/>
       <c r="B164" s="41"/>
       <c r="C164" s="43" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="D164" s="44" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="41"/>
       <c r="B165" s="41"/>
       <c r="C165" s="43" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="D165" s="44" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="41"/>
       <c r="B166" s="41"/>
       <c r="C166" s="43" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="D166" s="44" t="s">
-        <v>1420</v>
+        <v>976</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17722,37 +17738,37 @@
         <v>1425</v>
       </c>
       <c r="D169" s="44" t="s">
-        <v>353</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="41"/>
       <c r="B170" s="41"/>
       <c r="C170" s="43" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="D170" s="44" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="41"/>
       <c r="B171" s="41"/>
       <c r="C171" s="43" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="D171" s="44" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="41"/>
       <c r="B172" s="41"/>
       <c r="C172" s="43" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="D172" s="44" t="s">
-        <v>1429</v>
+        <v>317</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17772,44 +17788,44 @@
         <v>1432</v>
       </c>
       <c r="D174" s="44" t="s">
-        <v>979</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="41"/>
       <c r="B175" s="41"/>
       <c r="C175" s="43" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D175" s="44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="41"/>
       <c r="B176" s="41"/>
-      <c r="C176" s="45" t="s">
-        <v>1434</v>
-      </c>
-      <c r="D176" s="46" t="s">
+      <c r="C176" s="43" t="s">
         <v>1435</v>
       </c>
-      <c r="E176" s="45"/>
+      <c r="D176" s="44" t="s">
+        <v>980</v>
+      </c>
     </row>
     <row r="177" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="41" t="s">
+      <c r="A177" s="41"/>
+      <c r="B177" s="41"/>
+      <c r="C177" s="45" t="s">
         <v>1436</v>
       </c>
-      <c r="B177" s="41"/>
-      <c r="C177" s="43" t="s">
+      <c r="D177" s="46" t="s">
         <v>1437</v>
       </c>
-      <c r="D177" s="44" t="s">
+      <c r="E177" s="45"/>
+    </row>
+    <row r="178" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="41" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="178" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="41"/>
       <c r="B178" s="41"/>
       <c r="C178" s="43" t="s">
         <v>1439</v>
@@ -17845,27 +17861,27 @@
         <v>1445</v>
       </c>
       <c r="D181" s="44" t="s">
-        <v>200</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="41"/>
       <c r="B182" s="41"/>
       <c r="C182" s="43" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="D182" s="44" t="s">
-        <v>921</v>
+        <v>200</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="41"/>
       <c r="B183" s="41"/>
       <c r="C183" s="43" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="D183" s="44" t="s">
-        <v>1448</v>
+        <v>921</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17875,17 +17891,17 @@
         <v>1449</v>
       </c>
       <c r="D184" s="44" t="s">
-        <v>198</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="41"/>
       <c r="B185" s="41"/>
       <c r="C185" s="43" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="D185" s="44" t="s">
-        <v>1451</v>
+        <v>198</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17895,27 +17911,27 @@
         <v>1452</v>
       </c>
       <c r="D186" s="44" t="s">
-        <v>190</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="41"/>
       <c r="B187" s="41"/>
       <c r="C187" s="43" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="D187" s="44" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="41"/>
       <c r="B188" s="41"/>
       <c r="C188" s="43" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="D188" s="44" t="s">
-        <v>1455</v>
+        <v>212</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17991,39 +18007,46 @@
     <row r="196" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="41"/>
       <c r="B196" s="41"/>
-      <c r="C196" s="45" t="s">
+      <c r="C196" s="43" t="s">
         <v>1470</v>
       </c>
-      <c r="D196" s="46" t="s">
+      <c r="D196" s="44" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="41"/>
+      <c r="B197" s="41"/>
+      <c r="C197" s="45" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D197" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="E196" s="45"/>
-    </row>
-    <row r="197" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="48" t="s">
-        <v>1393</v>
-      </c>
-      <c r="B197" s="48"/>
-      <c r="C197" s="49" t="s">
-        <v>1471</v>
-      </c>
-      <c r="D197" s="44" t="s">
+      <c r="E197" s="45"/>
+    </row>
+    <row r="198" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="49" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B198" s="49"/>
+      <c r="C198" s="50" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D198" s="44" t="s">
         <v>562</v>
       </c>
-      <c r="E197" s="43" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="48"/>
-      <c r="B198" s="48"/>
-      <c r="C198" s="49"/>
-      <c r="D198" s="44" t="s">
+      <c r="E198" s="43" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="49"/>
+      <c r="B199" s="49"/>
+      <c r="C199" s="50"/>
+      <c r="D199" s="44" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="199" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D199" s="44"/>
     </row>
     <row r="200" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D200" s="44"/>
@@ -20548,25 +20571,28 @@
     <row r="1040" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1040" s="44"/>
     </row>
+    <row r="1041" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1041" s="44"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:A176"/>
+    <mergeCell ref="A2:A177"/>
     <mergeCell ref="B2:B14"/>
-    <mergeCell ref="B15:B29"/>
-    <mergeCell ref="B30:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B58"/>
-    <mergeCell ref="B59:B116"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="E67:E70"/>
-    <mergeCell ref="B117:B176"/>
-    <mergeCell ref="A177:B196"/>
-    <mergeCell ref="A197:B198"/>
-    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="B15:B30"/>
+    <mergeCell ref="B31:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B59"/>
+    <mergeCell ref="B60:B117"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="E68:E71"/>
+    <mergeCell ref="B118:B177"/>
+    <mergeCell ref="A178:B197"/>
+    <mergeCell ref="A198:B199"/>
+    <mergeCell ref="C198:C199"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Astro Software.xlsx
+++ b/Astro Software.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2853" uniqueCount="1497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2899" uniqueCount="1537">
   <si>
     <t xml:space="preserve">Astrodynamics Software </t>
   </si>
@@ -4654,6 +4654,96 @@
     <t xml:space="preserve">valladopy.mathtime.julian_date.convtime</t>
   </si>
   <si>
+    <t xml:space="preserve">valladopy.mathtime.rotations.quat_multiply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qtimesq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valladopy.mathtime.rotations.quat_transform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qtrans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valladopy.mathtime.rotations.quat2body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q2body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valladopy.mathtime.rotations.vec_by_quat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qtrvec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valladopy.mathtime.rotations.vec_by_dcm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcmtrvec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valladopy.mathtime.rotations.quat2rv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q2rv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valladopy.mathtime.rotations.rv2quat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rv2q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valladopy.mathtime.rotations.quat2dcm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q2dcm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valladopy.mathtime.rotations.dcm2quat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcm2q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valladopy.mathtime.rotations.quat2euler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q2euler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valladopy.mathtime.rotations.euler2quat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">euler2q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valladopy.mathtime.rotations.quat2eigen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q2eigen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valladopy.mathtime.rotations.eigen2quat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eigen2q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valladopy.mathtime.rotations.dcm2euler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcm2euler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valladopy.mathtime.rotations.euler2dcm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">euler2dcm</t>
+  </si>
+  <si>
     <t xml:space="preserve">valladopy.mathtime.utils.hms2sec</t>
   </si>
   <si>
@@ -4703,6 +4793,36 @@
   </si>
   <si>
     <t xml:space="preserve">valladopy.mathtime.utils.jd2sse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valladopy.mathtime.vector.rot1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valladopy.mathtime.vector.rot2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valladopy.mathtime.vector.rot3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valladopy.mathtime.vector.rot1mat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valladopy.mathtime.vector.rot2mat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valladopy.mathtime.vector.rot3mat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valladopy.mathtime.vector.angle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">angl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valladopy.mathtime.vector.unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit</t>
   </si>
   <si>
     <t xml:space="preserve">valladopy.constants</t>
@@ -4858,15 +4978,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -5002,7 +5122,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5203,11 +5323,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5217,6 +5333,18 @@
     </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -5474,9 +5602,9 @@
   <dimension ref="A1:P349"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="7" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="7" topLeftCell="A343" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="O233" activeCellId="0" sqref="O233"/>
+      <selection pane="bottomLeft" activeCell="H353" activeCellId="0" sqref="H353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="11.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10395,7 +10523,8 @@
         <v>459</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" s="13" customFormat="true" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="1"/>
       <c r="B261" s="10" t="s">
         <v>3</v>
       </c>
@@ -10411,6 +10540,8 @@
       <c r="F261" s="9" t="s">
         <v>3</v>
       </c>
+      <c r="G261" s="2"/>
+      <c r="H261" s="2"/>
       <c r="I261" s="2" t="n">
         <v>311</v>
       </c>
@@ -10420,9 +10551,13 @@
       <c r="K261" s="2" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="262" s="13" customFormat="true" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="1"/>
+      <c r="L261" s="2"/>
+      <c r="M261" s="2"/>
+      <c r="N261" s="2"/>
+      <c r="O261" s="2"/>
+      <c r="P261" s="2"/>
+    </row>
+    <row r="262" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="10" t="s">
         <v>3</v>
       </c>
@@ -10438,8 +10573,6 @@
       <c r="F262" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G262" s="2"/>
-      <c r="H262" s="2"/>
       <c r="I262" s="2" t="n">
         <v>310</v>
       </c>
@@ -10449,11 +10582,6 @@
       <c r="K262" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="L262" s="2"/>
-      <c r="M262" s="2"/>
-      <c r="N262" s="2"/>
-      <c r="O262" s="2"/>
-      <c r="P262" s="2"/>
     </row>
     <row r="263" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C263" s="1" t="s">
@@ -10602,45 +10730,45 @@
         <v>473</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" s="13" customFormat="true" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="1"/>
       <c r="B273" s="9" t="s">
         <v>3</v>
       </c>
+      <c r="C273" s="1"/>
       <c r="D273" s="9" t="s">
         <v>3</v>
       </c>
+      <c r="E273" s="1"/>
       <c r="F273" s="9" t="s">
         <v>3</v>
       </c>
+      <c r="G273" s="2"/>
+      <c r="H273" s="2"/>
+      <c r="I273" s="2"/>
       <c r="J273" s="2" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="274" s="13" customFormat="true" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="1"/>
+      <c r="K273" s="2"/>
+      <c r="L273" s="2"/>
+      <c r="M273" s="2"/>
+      <c r="N273" s="2"/>
+      <c r="O273" s="2"/>
+      <c r="P273" s="2"/>
+    </row>
+    <row r="274" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C274" s="1"/>
       <c r="D274" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E274" s="1"/>
       <c r="F274" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G274" s="2"/>
-      <c r="H274" s="2"/>
-      <c r="I274" s="2"/>
       <c r="J274" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="K274" s="2"/>
-      <c r="L274" s="2"/>
-      <c r="M274" s="2"/>
-      <c r="N274" s="2"/>
-      <c r="O274" s="2"/>
-      <c r="P274" s="2"/>
     </row>
     <row r="275" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="276" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -10955,7 +11083,7 @@
       <c r="N289" s="14"/>
       <c r="O289" s="14"/>
     </row>
-    <row r="290" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" s="13" customFormat="true" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="9" t="s">
         <v>3</v>
       </c>
@@ -10974,31 +11102,22 @@
       <c r="F290" s="9" t="s">
         <v>3</v>
       </c>
+      <c r="G290" s="2"/>
+      <c r="H290" s="2"/>
+      <c r="I290" s="2"/>
       <c r="J290" s="2" t="s">
         <v>498</v>
       </c>
       <c r="K290" s="2" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="291" s="13" customFormat="true" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="1"/>
-      <c r="B291" s="1"/>
-      <c r="C291" s="1"/>
-      <c r="D291" s="1"/>
-      <c r="E291" s="1"/>
-      <c r="F291" s="2"/>
-      <c r="G291" s="2"/>
-      <c r="H291" s="2"/>
-      <c r="I291" s="2"/>
-      <c r="J291" s="2"/>
-      <c r="K291" s="2"/>
-      <c r="L291" s="2"/>
-      <c r="M291" s="2"/>
-      <c r="N291" s="2"/>
-      <c r="O291" s="2"/>
-      <c r="P291" s="2"/>
-    </row>
+      <c r="L290" s="2"/>
+      <c r="M290" s="2"/>
+      <c r="N290" s="2"/>
+      <c r="O290" s="2"/>
+      <c r="P290" s="2"/>
+    </row>
+    <row r="291" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="292" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="7" t="s">
         <v>3</v>
@@ -11787,38 +11906,33 @@
         <v>567</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" s="13" customFormat="true" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="1"/>
       <c r="B339" s="22" t="s">
         <v>3</v>
       </c>
+      <c r="C339" s="1"/>
+      <c r="D339" s="1"/>
       <c r="E339" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F339" s="2"/>
+      <c r="G339" s="2"/>
+      <c r="H339" s="2"/>
+      <c r="I339" s="2"/>
       <c r="J339" s="2" t="s">
         <v>568</v>
       </c>
       <c r="K339" s="2" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="340" s="13" customFormat="true" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="1"/>
-      <c r="B340" s="1"/>
-      <c r="C340" s="1"/>
-      <c r="D340" s="1"/>
-      <c r="E340" s="1"/>
-      <c r="F340" s="2"/>
-      <c r="G340" s="2"/>
-      <c r="H340" s="2"/>
-      <c r="I340" s="2"/>
-      <c r="J340" s="2"/>
-      <c r="K340" s="2"/>
-      <c r="L340" s="2"/>
-      <c r="M340" s="2"/>
-      <c r="N340" s="2"/>
-      <c r="O340" s="2"/>
-      <c r="P340" s="2"/>
-    </row>
+      <c r="L339" s="2"/>
+      <c r="M339" s="2"/>
+      <c r="N339" s="2"/>
+      <c r="O339" s="2"/>
+      <c r="P339" s="2"/>
+    </row>
+    <row r="340" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="341" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="342" customFormat="false" ht="11.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="343" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14749,21 +14863,21 @@
       </c>
     </row>
     <row r="67" s="36" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0"/>
+      <c r="A67" s="24"/>
       <c r="B67" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="C67" s="0"/>
-      <c r="D67" s="0"/>
-      <c r="E67" s="0"/>
-      <c r="F67" s="0"/>
-      <c r="G67" s="0"/>
-      <c r="H67" s="0"/>
-      <c r="I67" s="0"/>
-      <c r="J67" s="0"/>
-      <c r="K67" s="0"/>
-      <c r="L67" s="0"/>
-      <c r="M67" s="0"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="24" t="s">
@@ -15653,20 +15767,20 @@
         <v>454</v>
       </c>
     </row>
-    <row r="221" s="36" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0"/>
-      <c r="B221" s="0"/>
-      <c r="C221" s="0"/>
-      <c r="D221" s="0"/>
-      <c r="E221" s="0"/>
-      <c r="F221" s="0"/>
-      <c r="G221" s="0"/>
-      <c r="H221" s="0"/>
-      <c r="I221" s="0"/>
-      <c r="J221" s="0"/>
-      <c r="K221" s="0"/>
-      <c r="L221" s="0"/>
-      <c r="M221" s="0"/>
+    <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="24"/>
+      <c r="B221" s="24"/>
+      <c r="C221" s="24"/>
+      <c r="D221" s="24"/>
+      <c r="E221" s="24"/>
+      <c r="F221" s="24"/>
+      <c r="G221" s="24"/>
+      <c r="H221" s="24"/>
+      <c r="I221" s="24"/>
+      <c r="J221" s="24"/>
+      <c r="K221" s="24"/>
+      <c r="L221" s="24"/>
+      <c r="M221" s="24"/>
     </row>
     <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="36"/>
@@ -15857,27 +15971,39 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" s="36" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="24" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="257" s="36" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B256" s="0"/>
+      <c r="C256" s="0"/>
+      <c r="D256" s="0"/>
+      <c r="E256" s="0"/>
+      <c r="F256" s="0"/>
+      <c r="G256" s="0"/>
+      <c r="H256" s="0"/>
+      <c r="I256" s="0"/>
+      <c r="J256" s="0"/>
+      <c r="K256" s="0"/>
+      <c r="L256" s="0"/>
+      <c r="M256" s="0"/>
+    </row>
+    <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="24" t="s">
         <v>1061</v>
       </c>
-      <c r="B257" s="0"/>
-      <c r="C257" s="0"/>
-      <c r="D257" s="0"/>
-      <c r="E257" s="0"/>
-      <c r="F257" s="0"/>
-      <c r="G257" s="0"/>
-      <c r="H257" s="0"/>
-      <c r="I257" s="0"/>
-      <c r="J257" s="0"/>
-      <c r="K257" s="0"/>
-      <c r="L257" s="0"/>
-      <c r="M257" s="0"/>
+      <c r="B257" s="24"/>
+      <c r="C257" s="24"/>
+      <c r="D257" s="24"/>
+      <c r="E257" s="24"/>
+      <c r="F257" s="24"/>
+      <c r="G257" s="24"/>
+      <c r="H257" s="24"/>
+      <c r="I257" s="24"/>
+      <c r="J257" s="24"/>
+      <c r="K257" s="24"/>
+      <c r="L257" s="24"/>
+      <c r="M257" s="24"/>
     </row>
     <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="36"/>
@@ -16334,10 +16460,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB1049"/>
+  <dimension ref="A1:AB1072"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D56" activeCellId="0" sqref="D56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C211" activeCellId="0" sqref="C211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16930,7 +17056,7 @@
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="41"/>
       <c r="B52" s="41"/>
-      <c r="C52" s="49" t="s">
+      <c r="C52" s="43" t="s">
         <v>1244</v>
       </c>
       <c r="D52" s="44" t="s">
@@ -16980,7 +17106,7 @@
       <c r="D56" s="44" t="s">
         <v>1250</v>
       </c>
-      <c r="E56" s="50" t="s">
+      <c r="E56" s="49" t="s">
         <v>1251</v>
       </c>
     </row>
@@ -16993,7 +17119,7 @@
       <c r="D57" s="46" t="s">
         <v>1253</v>
       </c>
-      <c r="E57" s="51" t="s">
+      <c r="E57" s="50" t="s">
         <v>1251</v>
       </c>
     </row>
@@ -17172,10 +17298,10 @@
       <c r="C72" s="43" t="s">
         <v>1272</v>
       </c>
-      <c r="D72" s="52" t="s">
+      <c r="D72" s="51" t="s">
         <v>1273</v>
       </c>
-      <c r="E72" s="53" t="s">
+      <c r="E72" s="52" t="s">
         <v>1274</v>
       </c>
     </row>
@@ -17185,8 +17311,8 @@
       <c r="C73" s="43" t="s">
         <v>1275</v>
       </c>
-      <c r="D73" s="52"/>
-      <c r="E73" s="52"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="51"/>
     </row>
     <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="41"/>
@@ -17194,8 +17320,8 @@
       <c r="C74" s="43" t="s">
         <v>1276</v>
       </c>
-      <c r="D74" s="52"/>
-      <c r="E74" s="52"/>
+      <c r="D74" s="51"/>
+      <c r="E74" s="51"/>
     </row>
     <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="41"/>
@@ -17203,10 +17329,10 @@
       <c r="C75" s="43" t="s">
         <v>1277</v>
       </c>
-      <c r="D75" s="52" t="s">
+      <c r="D75" s="51" t="s">
         <v>1278</v>
       </c>
-      <c r="E75" s="53" t="s">
+      <c r="E75" s="52" t="s">
         <v>1274</v>
       </c>
     </row>
@@ -17216,8 +17342,8 @@
       <c r="C76" s="43" t="s">
         <v>1279</v>
       </c>
-      <c r="D76" s="52"/>
-      <c r="E76" s="52"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="51"/>
     </row>
     <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="41"/>
@@ -17225,8 +17351,8 @@
       <c r="C77" s="43" t="s">
         <v>1280</v>
       </c>
-      <c r="D77" s="52"/>
-      <c r="E77" s="52"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="51"/>
     </row>
     <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="41"/>
@@ -17234,8 +17360,8 @@
       <c r="C78" s="43" t="s">
         <v>1281</v>
       </c>
-      <c r="D78" s="52"/>
-      <c r="E78" s="52"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="51"/>
     </row>
     <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="41"/>
@@ -18004,7 +18130,7 @@
       <c r="D152" s="44" t="s">
         <v>1405</v>
       </c>
-      <c r="E152" s="50" t="s">
+      <c r="E152" s="49" t="s">
         <v>1406</v>
       </c>
     </row>
@@ -18017,7 +18143,7 @@
       <c r="D153" s="44" t="s">
         <v>1408</v>
       </c>
-      <c r="E153" s="50" t="s">
+      <c r="E153" s="49" t="s">
         <v>1406</v>
       </c>
     </row>
@@ -18060,7 +18186,7 @@
       <c r="D157" s="44" t="s">
         <v>1416</v>
       </c>
-      <c r="E157" s="50" t="s">
+      <c r="E157" s="49" t="s">
         <v>1417</v>
       </c>
     </row>
@@ -18466,7 +18592,7 @@
     <row r="197" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="41"/>
       <c r="B197" s="41"/>
-      <c r="C197" s="43" t="s">
+      <c r="C197" s="53" t="s">
         <v>1478</v>
       </c>
       <c r="D197" s="44" t="s">
@@ -18476,7 +18602,7 @@
     <row r="198" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="41"/>
       <c r="B198" s="41"/>
-      <c r="C198" s="43" t="s">
+      <c r="C198" s="53" t="s">
         <v>1480</v>
       </c>
       <c r="D198" s="44" t="s">
@@ -18486,7 +18612,7 @@
     <row r="199" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="41"/>
       <c r="B199" s="41"/>
-      <c r="C199" s="43" t="s">
+      <c r="C199" s="53" t="s">
         <v>1482</v>
       </c>
       <c r="D199" s="44" t="s">
@@ -18496,7 +18622,7 @@
     <row r="200" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="41"/>
       <c r="B200" s="41"/>
-      <c r="C200" s="43" t="s">
+      <c r="C200" s="53" t="s">
         <v>1484</v>
       </c>
       <c r="D200" s="44" t="s">
@@ -18506,7 +18632,7 @@
     <row r="201" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="41"/>
       <c r="B201" s="41"/>
-      <c r="C201" s="43" t="s">
+      <c r="C201" s="53" t="s">
         <v>1486</v>
       </c>
       <c r="D201" s="44" t="s">
@@ -18516,7 +18642,7 @@
     <row r="202" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="41"/>
       <c r="B202" s="41"/>
-      <c r="C202" s="43" t="s">
+      <c r="C202" s="53" t="s">
         <v>1488</v>
       </c>
       <c r="D202" s="44" t="s">
@@ -18526,7 +18652,7 @@
     <row r="203" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="41"/>
       <c r="B203" s="41"/>
-      <c r="C203" s="43" t="s">
+      <c r="C203" s="53" t="s">
         <v>1490</v>
       </c>
       <c r="D203" s="44" t="s">
@@ -18536,7 +18662,7 @@
     <row r="204" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="41"/>
       <c r="B204" s="41"/>
-      <c r="C204" s="43" t="s">
+      <c r="C204" s="53" t="s">
         <v>1492</v>
       </c>
       <c r="D204" s="44" t="s">
@@ -18546,105 +18672,266 @@
     <row r="205" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="41"/>
       <c r="B205" s="41"/>
-      <c r="C205" s="45" t="s">
+      <c r="C205" s="53" t="s">
         <v>1494</v>
       </c>
-      <c r="D205" s="46" t="s">
+      <c r="D205" s="44" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="41"/>
+      <c r="B206" s="41"/>
+      <c r="C206" s="53" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D206" s="44" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="41"/>
+      <c r="B207" s="41"/>
+      <c r="C207" s="53" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D207" s="44" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="41"/>
+      <c r="B208" s="41"/>
+      <c r="C208" s="53" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D208" s="44" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="41"/>
+      <c r="B209" s="41"/>
+      <c r="C209" s="53" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D209" s="44" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="41"/>
+      <c r="B210" s="41"/>
+      <c r="C210" s="53" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D210" s="54" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="41"/>
+      <c r="B211" s="41"/>
+      <c r="C211" s="53" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D211" s="54" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="41"/>
+      <c r="B212" s="41"/>
+      <c r="C212" s="43" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D212" s="44" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="41"/>
+      <c r="B213" s="41"/>
+      <c r="C213" s="43" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D213" s="44" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="41"/>
+      <c r="B214" s="41"/>
+      <c r="C214" s="43" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D214" s="44" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="41"/>
+      <c r="B215" s="41"/>
+      <c r="C215" s="43" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D215" s="44" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="41"/>
+      <c r="B216" s="41"/>
+      <c r="C216" s="43" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D216" s="44" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="41"/>
+      <c r="B217" s="41"/>
+      <c r="C217" s="43" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D217" s="44" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="41"/>
+      <c r="B218" s="41"/>
+      <c r="C218" s="43" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D218" s="44" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="41"/>
+      <c r="B219" s="41"/>
+      <c r="C219" s="43" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D219" s="44" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="41"/>
+      <c r="B220" s="41"/>
+      <c r="C220" s="53" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D220" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="E205" s="45"/>
-    </row>
-    <row r="206" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="52" t="s">
+    </row>
+    <row r="221" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="41"/>
+      <c r="B221" s="41"/>
+      <c r="C221" s="53" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D221" s="44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="41"/>
+      <c r="B222" s="41"/>
+      <c r="C222" s="53" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D222" s="44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="41"/>
+      <c r="B223" s="41"/>
+      <c r="C223" s="53" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D223" s="44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="41"/>
+      <c r="B224" s="41"/>
+      <c r="C224" s="53" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D224" s="44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="41"/>
+      <c r="B225" s="41"/>
+      <c r="C225" s="53" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D225" s="44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="41"/>
+      <c r="B226" s="41"/>
+      <c r="C226" s="53" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D226" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="41"/>
+      <c r="B227" s="41"/>
+      <c r="C227" s="53" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D227" s="44" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="41"/>
+      <c r="B228" s="41"/>
+      <c r="C228" s="55" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D228" s="46" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E228" s="45"/>
+    </row>
+    <row r="229" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="51" t="s">
         <v>1416</v>
       </c>
-      <c r="B206" s="52"/>
-      <c r="C206" s="53" t="s">
-        <v>1495</v>
-      </c>
-      <c r="D206" s="44" t="s">
+      <c r="B229" s="51"/>
+      <c r="C229" s="52" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D229" s="44" t="s">
         <v>572</v>
       </c>
-      <c r="E206" s="43" t="s">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="52"/>
-      <c r="B207" s="52"/>
-      <c r="C207" s="53"/>
-      <c r="D207" s="44" t="s">
+      <c r="E229" s="43" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="51"/>
+      <c r="B230" s="51"/>
+      <c r="C230" s="52"/>
+      <c r="D230" s="44" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="208" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D208" s="44"/>
-    </row>
-    <row r="209" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D209" s="44"/>
-    </row>
-    <row r="210" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D210" s="44"/>
-    </row>
-    <row r="211" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D211" s="44"/>
-    </row>
-    <row r="212" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D212" s="44"/>
-    </row>
-    <row r="213" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D213" s="44"/>
-    </row>
-    <row r="214" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D214" s="44"/>
-    </row>
-    <row r="215" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D215" s="44"/>
-    </row>
-    <row r="216" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D216" s="44"/>
-    </row>
-    <row r="217" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D217" s="44"/>
-    </row>
-    <row r="218" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D218" s="44"/>
-    </row>
-    <row r="219" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D219" s="44"/>
-    </row>
-    <row r="220" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D220" s="44"/>
-    </row>
-    <row r="221" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D221" s="44"/>
-    </row>
-    <row r="222" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D222" s="44"/>
-    </row>
-    <row r="223" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D223" s="44"/>
-    </row>
-    <row r="224" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D224" s="44"/>
-    </row>
-    <row r="225" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D225" s="44"/>
-    </row>
-    <row r="226" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D226" s="44"/>
-    </row>
-    <row r="227" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D227" s="44"/>
-    </row>
-    <row r="228" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D228" s="44"/>
-    </row>
-    <row r="229" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D229" s="44"/>
-    </row>
-    <row r="230" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D230" s="44"/>
     </row>
     <row r="231" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D231" s="44"/>
@@ -21102,6 +21389,75 @@
     </row>
     <row r="1049" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1049" s="44"/>
+    </row>
+    <row r="1050" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1050" s="44"/>
+    </row>
+    <row r="1051" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1051" s="44"/>
+    </row>
+    <row r="1052" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1052" s="44"/>
+    </row>
+    <row r="1053" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1053" s="44"/>
+    </row>
+    <row r="1054" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1054" s="44"/>
+    </row>
+    <row r="1055" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1055" s="44"/>
+    </row>
+    <row r="1056" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1056" s="44"/>
+    </row>
+    <row r="1057" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1057" s="44"/>
+    </row>
+    <row r="1058" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1058" s="44"/>
+    </row>
+    <row r="1059" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1059" s="44"/>
+    </row>
+    <row r="1060" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1060" s="44"/>
+    </row>
+    <row r="1061" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1061" s="44"/>
+    </row>
+    <row r="1062" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1062" s="44"/>
+    </row>
+    <row r="1063" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1063" s="44"/>
+    </row>
+    <row r="1064" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1064" s="44"/>
+    </row>
+    <row r="1065" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1065" s="44"/>
+    </row>
+    <row r="1066" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1066" s="44"/>
+    </row>
+    <row r="1067" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1067" s="44"/>
+    </row>
+    <row r="1068" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1068" s="44"/>
+    </row>
+    <row r="1069" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1069" s="44"/>
+    </row>
+    <row r="1070" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1070" s="44"/>
+    </row>
+    <row r="1071" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1071" s="44"/>
+    </row>
+    <row r="1072" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1072" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -21119,9 +21475,9 @@
     <mergeCell ref="D75:D78"/>
     <mergeCell ref="E75:E78"/>
     <mergeCell ref="B125:B185"/>
-    <mergeCell ref="A186:B205"/>
-    <mergeCell ref="A206:B207"/>
-    <mergeCell ref="C206:C207"/>
+    <mergeCell ref="A186:B228"/>
+    <mergeCell ref="A229:B230"/>
+    <mergeCell ref="C229:C230"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
